--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K2" sqref="K2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
@@ -1325,11 +1325,7 @@
       <c r="H4" s="1" t="n"/>
       <c r="I4" s="1" t="n"/>
       <c r="J4" s="1" t="n"/>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
+      <c r="K4" s="1" t="n"/>
       <c r="L4" s="1" t="n"/>
       <c r="M4" s="1" t="n"/>
       <c r="N4" s="1" t="n"/>
